--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1085506.115467902</v>
+        <v>-1087365.170750261</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.37720686</v>
+        <v>4728206.377206859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.4716714268618</v>
+        <v>318.4716714268617</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4208713840642</v>
+        <v>290.4208713840641</v>
       </c>
       <c r="E11" t="n">
-        <v>317.668199835643</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>342.6138755050927</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>348.305269075243</v>
+        <v>193.4244305033369</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I11" t="n">
-        <v>40.76113535209358</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.42729154253639</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>186.8646588149558</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>246.5571802628158</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X11" t="n">
-        <v>305.4689304418503</v>
+        <v>305.4689304418502</v>
       </c>
       <c r="Y11" t="n">
         <v>321.9757684194348</v>
@@ -1467,7 +1467,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I12" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S12" t="n">
         <v>144.499048576932</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>102.984650862009</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159357</v>
+        <v>84.35330278159353</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995038</v>
+        <v>82.17179240995034</v>
       </c>
       <c r="F13" t="n">
-        <v>81.15887778631246</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>102.5018485138553</v>
       </c>
       <c r="H13" t="n">
-        <v>87.05620704710246</v>
+        <v>87.05620704710242</v>
       </c>
       <c r="I13" t="n">
-        <v>54.2902529523366</v>
+        <v>54.29025295233657</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.86261053062142</v>
+        <v>57.8626105306214</v>
       </c>
       <c r="S13" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.6036756775312</v>
       </c>
       <c r="U13" t="n">
         <v>221.9899339958002</v>
@@ -1591,10 +1591,10 @@
         <v>222.2608280999722</v>
       </c>
       <c r="X13" t="n">
-        <v>161.4474851524184</v>
+        <v>161.4474851524183</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.4294487532272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.4716714268618</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0107215343888</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840642</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>317.668199835643</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>342.6138755050927</v>
+        <v>303.9112907451153</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>348.305269075243</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.76113535209355</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>82.42729154253641</v>
       </c>
       <c r="T14" t="n">
-        <v>85.8110447593275</v>
+        <v>146.8599114426837</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149559</v>
+        <v>186.8646588149558</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W14" t="n">
         <v>284.9787984807942</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>305.4689304418502</v>
       </c>
       <c r="Y14" t="n">
         <v>321.9757684194348</v>
@@ -1704,7 +1704,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I15" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S15" t="n">
         <v>144.499048576932</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.5698099453185</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>102.984650862009</v>
+        <v>27.97775576765757</v>
       </c>
       <c r="D16" t="n">
-        <v>84.35330278159357</v>
+        <v>84.35330278159353</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.17179240995034</v>
       </c>
       <c r="F16" t="n">
-        <v>81.15887778631246</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.5018485138553</v>
       </c>
       <c r="H16" t="n">
-        <v>87.05620704710246</v>
+        <v>87.05620704710242</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062142</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T16" t="n">
-        <v>158.4409511393646</v>
+        <v>158.4409511393645</v>
       </c>
       <c r="U16" t="n">
         <v>221.9899339958002</v>
@@ -1828,7 +1828,7 @@
         <v>222.2608280999722</v>
       </c>
       <c r="X16" t="n">
-        <v>16.52293271961991</v>
+        <v>161.4474851524183</v>
       </c>
       <c r="Y16" t="n">
         <v>154.322483115476</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>238.1073382465104</v>
+        <v>238.1073382465103</v>
       </c>
       <c r="C17" t="n">
-        <v>220.6463883540374</v>
+        <v>220.6463883540373</v>
       </c>
       <c r="D17" t="n">
-        <v>210.0565382037128</v>
+        <v>210.0565382037127</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3038666552916</v>
+        <v>237.3038666552915</v>
       </c>
       <c r="F17" t="n">
         <v>262.2495423247412</v>
@@ -1859,7 +1859,7 @@
         <v>267.9409358948915</v>
       </c>
       <c r="H17" t="n">
-        <v>166.8354259745244</v>
+        <v>166.8354259745243</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362185022</v>
+        <v>2.062958362184972</v>
       </c>
       <c r="T17" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233229</v>
       </c>
       <c r="U17" t="n">
-        <v>106.5003256346045</v>
+        <v>106.5003256346044</v>
       </c>
       <c r="V17" t="n">
         <v>183.1257550531647</v>
       </c>
       <c r="W17" t="n">
-        <v>104.2022162365212</v>
+        <v>204.6144653004428</v>
       </c>
       <c r="X17" t="n">
-        <v>225.1045972614988</v>
+        <v>124.6923481975774</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.6114352390834</v>
+        <v>241.6114352390833</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I18" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S18" t="n">
         <v>144.499048576932</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.9321923747088</v>
+        <v>35.20547676496705</v>
       </c>
       <c r="C19" t="n">
-        <v>22.62031768165764</v>
+        <v>22.62031768165758</v>
       </c>
       <c r="D19" t="n">
-        <v>3.988969601242161</v>
+        <v>3.988969601242104</v>
       </c>
       <c r="E19" t="n">
-        <v>1.807459229598976</v>
+        <v>1.807459229598919</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7945446059610504</v>
+        <v>0.7945446059609935</v>
       </c>
       <c r="G19" t="n">
-        <v>22.13751533350388</v>
+        <v>22.13751533350383</v>
       </c>
       <c r="H19" t="n">
-        <v>6.691873866751047</v>
+        <v>6.691873866750992</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.613065132156009</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.00751747903271</v>
+        <v>58.00751747903266</v>
       </c>
       <c r="T19" t="n">
-        <v>78.07661795901313</v>
+        <v>78.07661795901308</v>
       </c>
       <c r="U19" t="n">
-        <v>141.6256008154488</v>
+        <v>141.6256008154487</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>141.8964949196208</v>
+        <v>141.8964949196207</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>141.1968024496536</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9581499351246</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C20" t="n">
-        <v>120.2341392901158</v>
+        <v>220.6463883540373</v>
       </c>
       <c r="D20" t="n">
-        <v>210.0565382037128</v>
+        <v>210.0565382037127</v>
       </c>
       <c r="E20" t="n">
         <v>237.3038666552916</v>
@@ -2093,7 +2093,7 @@
         <v>262.2495423247412</v>
       </c>
       <c r="G20" t="n">
-        <v>267.9409358948915</v>
+        <v>167.5286868309696</v>
       </c>
       <c r="H20" t="n">
         <v>166.8354259745244</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362185022</v>
+        <v>2.062958362185</v>
       </c>
       <c r="T20" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233232</v>
       </c>
       <c r="U20" t="n">
-        <v>106.5003256346045</v>
+        <v>106.5003256346044</v>
       </c>
       <c r="V20" t="n">
         <v>183.1257550531647</v>
@@ -2178,7 +2178,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I21" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S21" t="n">
         <v>144.499048576932</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.2054767649671</v>
+        <v>35.20547676496707</v>
       </c>
       <c r="C22" t="n">
-        <v>22.62031768165764</v>
+        <v>22.62031768165761</v>
       </c>
       <c r="D22" t="n">
-        <v>3.988969601242161</v>
+        <v>3.988969601242133</v>
       </c>
       <c r="E22" t="n">
-        <v>1.807459229598976</v>
+        <v>1.807459229598948</v>
       </c>
       <c r="F22" t="n">
-        <v>67.5212602157029</v>
+        <v>0.7945446059610219</v>
       </c>
       <c r="G22" t="n">
-        <v>22.13751533350388</v>
+        <v>22.13751533350386</v>
       </c>
       <c r="H22" t="n">
-        <v>6.691873866751047</v>
+        <v>6.69187386675102</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.613065132156009</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6340208960029</v>
+        <v>58.00751747903269</v>
       </c>
       <c r="T22" t="n">
-        <v>222.7031213759833</v>
+        <v>78.07661795901311</v>
       </c>
       <c r="U22" t="n">
-        <v>141.6256008154488</v>
+        <v>286.252104232419</v>
       </c>
       <c r="V22" t="n">
-        <v>107.5111399068578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>141.8964949196208</v>
+        <v>202.0101453972071</v>
       </c>
       <c r="X22" t="n">
-        <v>81.08315197206696</v>
+        <v>81.08315197206693</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.9581499351246</v>
+        <v>73.95814993512457</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C23" t="n">
-        <v>220.6463883540374</v>
+        <v>220.6463883540373</v>
       </c>
       <c r="D23" t="n">
-        <v>210.0565382037128</v>
+        <v>210.0565382037127</v>
       </c>
       <c r="E23" t="n">
         <v>237.3038666552916</v>
@@ -2330,10 +2330,10 @@
         <v>262.2495423247412</v>
       </c>
       <c r="G23" t="n">
-        <v>267.9409358948915</v>
+        <v>267.9409358948916</v>
       </c>
       <c r="H23" t="n">
-        <v>166.8354259745244</v>
+        <v>166.8354259745243</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362185022</v>
+        <v>2.062958362185</v>
       </c>
       <c r="T23" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233232</v>
       </c>
       <c r="U23" t="n">
-        <v>106.5003256346045</v>
+        <v>106.5003256346044</v>
       </c>
       <c r="V23" t="n">
         <v>183.1257550531647</v>
@@ -2415,7 +2415,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I24" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S24" t="n">
         <v>144.499048576932</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.2054767649671</v>
+        <v>35.20547676496707</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.62031768165761</v>
       </c>
       <c r="D25" t="n">
-        <v>70.71568521098391</v>
+        <v>3.988969601242133</v>
       </c>
       <c r="E25" t="n">
-        <v>1.807459229598976</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7945446059610504</v>
+        <v>0.7945446059610219</v>
       </c>
       <c r="G25" t="n">
-        <v>22.13751533350388</v>
+        <v>22.13751533350386</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866751047</v>
+        <v>6.69187386675102</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.613065132156009</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903271</v>
+        <v>58.00751747903269</v>
       </c>
       <c r="T25" t="n">
-        <v>78.07661795901313</v>
+        <v>78.07661795901311</v>
       </c>
       <c r="U25" t="n">
         <v>141.6256008154488</v>
@@ -2536,13 +2536,13 @@
         <v>107.5111399068578</v>
       </c>
       <c r="W25" t="n">
-        <v>141.8964949196208</v>
+        <v>224.5118680469371</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>81.08315197206693</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.9581499351246</v>
+        <v>73.95814993512457</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C26" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D26" t="n">
         <v>274.3187084403315</v>
@@ -2573,7 +2573,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I26" t="n">
-        <v>24.65897240836095</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>130.7577484989511</v>
       </c>
       <c r="U26" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V26" t="n">
         <v>247.3879252897835</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C28" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E28" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G28" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H28" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I28" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76044758688882</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S28" t="n">
         <v>122.2696877156515</v>
@@ -2776,7 +2776,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X28" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y28" t="n">
         <v>138.2203201717434</v>
@@ -2792,25 +2792,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C29" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D29" t="n">
-        <v>274.3187084403315</v>
+        <v>274.3187084403316</v>
       </c>
       <c r="E29" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F29" t="n">
-        <v>326.51171256136</v>
+        <v>326.5117125613601</v>
       </c>
       <c r="G29" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H29" t="n">
         <v>231.0975962111432</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836094</v>
+        <v>24.658972408361</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880383</v>
       </c>
       <c r="T29" t="n">
-        <v>130.7577484989511</v>
+        <v>130.7577484989512</v>
       </c>
       <c r="U29" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V29" t="n">
         <v>247.3879252897835</v>
@@ -2855,7 +2855,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X29" t="n">
-        <v>289.3667674981176</v>
+        <v>289.3667674981177</v>
       </c>
       <c r="Y29" t="n">
         <v>305.8736054757022</v>
@@ -2889,7 +2889,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I30" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S30" t="n">
         <v>144.499048576932</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158592</v>
       </c>
       <c r="C31" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827645</v>
       </c>
       <c r="D31" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786098</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621779</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257986</v>
       </c>
       <c r="G31" t="n">
-        <v>86.39968557012268</v>
+        <v>86.39968557012192</v>
       </c>
       <c r="H31" t="n">
-        <v>70.95404410336975</v>
+        <v>70.95404410336987</v>
       </c>
       <c r="I31" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860401</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688884</v>
       </c>
       <c r="S31" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T31" t="n">
-        <v>142.3387881956319</v>
+        <v>142.338788195632</v>
       </c>
       <c r="U31" t="n">
         <v>205.8877710520676</v>
@@ -3013,7 +3013,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X31" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y31" t="n">
         <v>138.2203201717434</v>
@@ -3041,13 +3041,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G32" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H32" t="n">
         <v>231.0975962111432</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.32512859880381</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T32" t="n">
         <v>130.7577484989511</v>
@@ -3126,7 +3126,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I33" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S33" t="n">
         <v>144.499048576932</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C34" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D34" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G34" t="n">
         <v>86.39968557012267</v>
       </c>
       <c r="H34" t="n">
-        <v>70.95404410336984</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860397</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I35" t="n">
-        <v>24.65897240836097</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880383</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
@@ -3332,7 +3332,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158585</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827638</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25113983786095</v>
+        <v>68.2511398378609</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621772</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257979</v>
       </c>
       <c r="G37" t="n">
-        <v>86.39968557012267</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H37" t="n">
-        <v>70.95404410336984</v>
+        <v>70.9540441033698</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S37" t="n">
         <v>122.2696877156515</v>
@@ -3478,7 +3478,7 @@
         <v>142.3387881956319</v>
       </c>
       <c r="U37" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V37" t="n">
         <v>171.7733101434766</v>
@@ -3490,7 +3490,7 @@
         <v>145.3453222086857</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836097</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880383</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T38" t="n">
         <v>130.7577484989511</v>
@@ -3569,7 +3569,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158585</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827638</v>
       </c>
       <c r="D40" t="n">
-        <v>68.25113983786095</v>
+        <v>68.2511398378609</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621772</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257979</v>
       </c>
       <c r="G40" t="n">
-        <v>86.39968557012267</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H40" t="n">
-        <v>70.95404410336984</v>
+        <v>70.9540441033698</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S40" t="n">
         <v>122.2696877156515</v>
@@ -3715,7 +3715,7 @@
         <v>142.3387881956319</v>
       </c>
       <c r="U40" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V40" t="n">
         <v>171.7733101434766</v>
@@ -3727,7 +3727,7 @@
         <v>145.3453222086857</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.3695084831291</v>
+        <v>302.3695084831292</v>
       </c>
       <c r="C41" t="n">
         <v>284.9085585906561</v>
@@ -3746,19 +3746,19 @@
         <v>274.3187084403315</v>
       </c>
       <c r="E41" t="n">
-        <v>301.5660368919103</v>
+        <v>301.5660368919104</v>
       </c>
       <c r="F41" t="n">
         <v>326.51171256136</v>
       </c>
       <c r="G41" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H41" t="n">
-        <v>231.0975962111431</v>
+        <v>231.0975962111432</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.32512859880377</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T41" t="n">
         <v>130.7577484989511</v>
@@ -3797,10 +3797,10 @@
         <v>170.7624958712232</v>
       </c>
       <c r="V41" t="n">
-        <v>247.3879252897834</v>
+        <v>247.3879252897835</v>
       </c>
       <c r="W41" t="n">
-        <v>268.8766355370615</v>
+        <v>268.8766355370616</v>
       </c>
       <c r="X41" t="n">
         <v>289.3667674981176</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S42" t="n">
         <v>144.499048576932</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.46764700158583</v>
+        <v>99.46764700158585</v>
       </c>
       <c r="C43" t="n">
-        <v>86.88248791827637</v>
+        <v>86.88248791827638</v>
       </c>
       <c r="D43" t="n">
-        <v>68.25113983786089</v>
+        <v>68.2511398378609</v>
       </c>
       <c r="E43" t="n">
-        <v>66.06962946621771</v>
+        <v>66.06962946621772</v>
       </c>
       <c r="F43" t="n">
-        <v>65.05671484257978</v>
+        <v>65.05671484257979</v>
       </c>
       <c r="G43" t="n">
-        <v>86.39968557012261</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H43" t="n">
-        <v>70.95404410336978</v>
+        <v>70.9540441033698</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860393</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76044758688876</v>
+        <v>41.76044758688878</v>
       </c>
       <c r="S43" t="n">
-        <v>122.2696877156514</v>
+        <v>122.2696877156515</v>
       </c>
       <c r="T43" t="n">
-        <v>142.3387881956318</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U43" t="n">
-        <v>205.8877710520675</v>
+        <v>205.8877710520676</v>
       </c>
       <c r="V43" t="n">
-        <v>171.7733101434765</v>
+        <v>171.7733101434766</v>
       </c>
       <c r="W43" t="n">
-        <v>206.1586651562395</v>
+        <v>206.1586651562396</v>
       </c>
       <c r="X43" t="n">
         <v>145.3453222086857</v>
@@ -3995,7 +3995,7 @@
         <v>231.0975962111431</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836092</v>
+        <v>24.65897240836091</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880379</v>
+        <v>66.32512859880376</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.46764700158583</v>
+        <v>99.46764700158582</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827637</v>
+        <v>86.88248791827635</v>
       </c>
       <c r="D46" t="n">
-        <v>68.25113983786089</v>
+        <v>68.25113983786088</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621771</v>
+        <v>66.06962946621769</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257978</v>
+        <v>65.05671484257977</v>
       </c>
       <c r="G46" t="n">
-        <v>86.39968557012263</v>
+        <v>86.3996855701226</v>
       </c>
       <c r="H46" t="n">
-        <v>70.95404410336978</v>
+        <v>70.95404410336977</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860394</v>
+        <v>38.18809000860392</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76044758688877</v>
+        <v>41.76044758688875</v>
       </c>
       <c r="S46" t="n">
         <v>122.2696877156514</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.502805775259</v>
+        <v>1094.681019335389</v>
       </c>
       <c r="C11" t="n">
-        <v>1405.502805775259</v>
+        <v>790.629785462269</v>
       </c>
       <c r="D11" t="n">
-        <v>1112.1483902358</v>
+        <v>497.2753699228102</v>
       </c>
       <c r="E11" t="n">
-        <v>791.2714207048475</v>
+        <v>497.2753699228102</v>
       </c>
       <c r="F11" t="n">
-        <v>445.1967989825316</v>
+        <v>497.2753699228102</v>
       </c>
       <c r="G11" t="n">
-        <v>93.3732948661242</v>
+        <v>301.897157293177</v>
       </c>
       <c r="H11" t="n">
-        <v>93.3732948661242</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I11" t="n">
         <v>52.20043087411048</v>
@@ -5042,19 +5042,19 @@
         <v>270.2041001343099</v>
       </c>
       <c r="K11" t="n">
-        <v>396.7759345361578</v>
+        <v>717.6798929816108</v>
       </c>
       <c r="L11" t="n">
-        <v>1004.185851621736</v>
+        <v>911.6052076622427</v>
       </c>
       <c r="M11" t="n">
-        <v>1283.747178961142</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N11" t="n">
-        <v>1539.813681689523</v>
+        <v>1415.120425824779</v>
       </c>
       <c r="O11" t="n">
-        <v>2145.266937227466</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P11" t="n">
         <v>2305.752179175668</v>
@@ -5066,25 +5066,25 @@
         <v>2610.021543705524</v>
       </c>
       <c r="S11" t="n">
-        <v>2610.021543705524</v>
+        <v>2526.761653258518</v>
       </c>
       <c r="T11" t="n">
-        <v>2610.021543705524</v>
+        <v>2526.761653258518</v>
       </c>
       <c r="U11" t="n">
-        <v>2610.021543705524</v>
+        <v>2338.00947263735</v>
       </c>
       <c r="V11" t="n">
-        <v>2610.021543705524</v>
+        <v>2338.00947263735</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.973886874397</v>
+        <v>2050.152100434528</v>
       </c>
       <c r="X11" t="n">
-        <v>2052.419411680609</v>
+        <v>1741.597625240739</v>
       </c>
       <c r="Y11" t="n">
-        <v>1727.191362772089</v>
+        <v>1416.369576332219</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J12" t="n">
-        <v>63.51841814083016</v>
+        <v>63.51841814083014</v>
       </c>
       <c r="K12" t="n">
-        <v>422.8380704495203</v>
+        <v>422.8380704495202</v>
       </c>
       <c r="L12" t="n">
-        <v>967.3920820646294</v>
+        <v>600.2601402142047</v>
       </c>
       <c r="M12" t="n">
-        <v>1570.08278579521</v>
+        <v>1246.240472281322</v>
       </c>
       <c r="N12" t="n">
-        <v>2216.063117862327</v>
+        <v>1892.220804348439</v>
       </c>
       <c r="O12" t="n">
         <v>2419.61787099099</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>548.6976849055758</v>
+        <v>570.7439203355723</v>
       </c>
       <c r="C13" t="n">
-        <v>548.6976849055758</v>
+        <v>466.7190204749571</v>
       </c>
       <c r="D13" t="n">
-        <v>463.4923285605319</v>
+        <v>381.5136641299131</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4905180454305</v>
+        <v>298.5118536148117</v>
       </c>
       <c r="F13" t="n">
-        <v>298.5118536148118</v>
+        <v>298.5118536148117</v>
       </c>
       <c r="G13" t="n">
-        <v>194.9746328937459</v>
+        <v>194.9746328937458</v>
       </c>
       <c r="H13" t="n">
         <v>107.039070219905</v>
@@ -5197,22 +5197,22 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2730449275286</v>
+        <v>109.2730449275287</v>
       </c>
       <c r="K13" t="n">
         <v>291.970805684555</v>
       </c>
       <c r="L13" t="n">
-        <v>563.4959032733532</v>
+        <v>563.4959032733535</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7118258711464</v>
+        <v>856.7118258711466</v>
       </c>
       <c r="N13" t="n">
         <v>1149.90307628869</v>
       </c>
       <c r="O13" t="n">
-        <v>1409.552953254354</v>
+        <v>1409.552953254355</v>
       </c>
       <c r="P13" t="n">
         <v>1617.389630818505</v>
@@ -5227,22 +5227,22 @@
         <v>1499.20593651025</v>
       </c>
       <c r="T13" t="n">
-        <v>1499.20593651025</v>
+        <v>1372.333536835976</v>
       </c>
       <c r="U13" t="n">
-        <v>1274.973679948835</v>
+        <v>1148.101280274562</v>
       </c>
       <c r="V13" t="n">
-        <v>1085.20047481024</v>
+        <v>958.3280751359669</v>
       </c>
       <c r="W13" t="n">
-        <v>860.6945878405713</v>
+        <v>733.822188166298</v>
       </c>
       <c r="X13" t="n">
-        <v>697.6163200098457</v>
+        <v>570.7439203355723</v>
       </c>
       <c r="Y13" t="n">
-        <v>548.6976849055758</v>
+        <v>570.7439203355723</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1316.557671539958</v>
+        <v>1001.874627164341</v>
       </c>
       <c r="C14" t="n">
-        <v>1012.506437666838</v>
+        <v>1001.874627164341</v>
       </c>
       <c r="D14" t="n">
-        <v>719.1520221273788</v>
+        <v>1001.874627164341</v>
       </c>
       <c r="E14" t="n">
-        <v>398.2750525964263</v>
+        <v>1001.874627164341</v>
       </c>
       <c r="F14" t="n">
-        <v>52.20043087411048</v>
+        <v>694.8935254015976</v>
       </c>
       <c r="G14" t="n">
-        <v>52.20043087411048</v>
+        <v>343.0700212851905</v>
       </c>
       <c r="H14" t="n">
-        <v>52.20043087411048</v>
+        <v>93.37329486612413</v>
       </c>
       <c r="I14" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J14" t="n">
-        <v>102.7984511139569</v>
+        <v>270.2041001343099</v>
       </c>
       <c r="K14" t="n">
-        <v>550.2742439612579</v>
+        <v>717.6798929816108</v>
       </c>
       <c r="L14" t="n">
-        <v>1157.684161046836</v>
+        <v>911.6052076622427</v>
       </c>
       <c r="M14" t="n">
-        <v>1405.132876480992</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N14" t="n">
-        <v>1661.199379209373</v>
+        <v>1415.120425824779</v>
       </c>
       <c r="O14" t="n">
-        <v>2036.878056891004</v>
+        <v>2020.573681362722</v>
       </c>
       <c r="P14" t="n">
-        <v>2515.944019928973</v>
+        <v>2499.639644400692</v>
       </c>
       <c r="Q14" t="n">
         <v>2588.28900646351</v>
@@ -5306,22 +5306,22 @@
         <v>2526.761653258518</v>
       </c>
       <c r="T14" t="n">
-        <v>2440.083830269298</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="U14" t="n">
-        <v>2251.33164964813</v>
+        <v>2189.666127745751</v>
       </c>
       <c r="V14" t="n">
-        <v>2251.33164964813</v>
+        <v>1923.514523469471</v>
       </c>
       <c r="W14" t="n">
-        <v>1963.474277445308</v>
+        <v>1635.657151266649</v>
       </c>
       <c r="X14" t="n">
-        <v>1963.474277445308</v>
+        <v>1327.102676072861</v>
       </c>
       <c r="Y14" t="n">
-        <v>1638.246228536788</v>
+        <v>1001.874627164341</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>327.9470021540671</v>
       </c>
       <c r="G15" t="n">
-        <v>190.6944732642096</v>
+        <v>190.6944732642094</v>
       </c>
       <c r="H15" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448012</v>
       </c>
       <c r="I15" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J15" t="n">
-        <v>188.3485431278349</v>
+        <v>63.51841814083014</v>
       </c>
       <c r="K15" t="n">
-        <v>285.8476107940722</v>
+        <v>422.8380704495202</v>
       </c>
       <c r="L15" t="n">
-        <v>830.4016224091814</v>
+        <v>600.2601402142047</v>
       </c>
       <c r="M15" t="n">
-        <v>1476.381954476299</v>
+        <v>1246.240472281322</v>
       </c>
       <c r="N15" t="n">
-        <v>1723.182790306186</v>
+        <v>1618.162906919874</v>
       </c>
       <c r="O15" t="n">
-        <v>2104.339730037453</v>
+        <v>2211.6413561325</v>
       </c>
       <c r="P15" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.021543705524</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.3449141842294</v>
+        <v>440.140740490433</v>
       </c>
       <c r="C16" t="n">
-        <v>307.3200143236141</v>
+        <v>411.8803811291626</v>
       </c>
       <c r="D16" t="n">
-        <v>222.1146579785701</v>
+        <v>326.6750247841186</v>
       </c>
       <c r="E16" t="n">
-        <v>222.1146579785701</v>
+        <v>243.6732142690172</v>
       </c>
       <c r="F16" t="n">
-        <v>140.1359935479514</v>
+        <v>243.6732142690172</v>
       </c>
       <c r="G16" t="n">
-        <v>140.1359935479514</v>
+        <v>140.1359935479513</v>
       </c>
       <c r="H16" t="n">
         <v>52.20043087411048</v>
@@ -5434,16 +5434,16 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J16" t="n">
-        <v>109.2730449275284</v>
+        <v>109.2730449275287</v>
       </c>
       <c r="K16" t="n">
-        <v>291.9708056845548</v>
+        <v>291.9708056845549</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733534</v>
+        <v>563.4959032733535</v>
       </c>
       <c r="M16" t="n">
-        <v>856.7118258711464</v>
+        <v>856.7118258711466</v>
       </c>
       <c r="N16" t="n">
         <v>1149.90307628869</v>
@@ -5458,28 +5458,28 @@
         <v>1697.422563974902</v>
       </c>
       <c r="R16" t="n">
-        <v>1638.97548263084</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="S16" t="n">
-        <v>1499.20593651025</v>
+        <v>1557.653017854312</v>
       </c>
       <c r="T16" t="n">
-        <v>1339.164571723013</v>
+        <v>1397.611653067075</v>
       </c>
       <c r="U16" t="n">
-        <v>1114.932315161599</v>
+        <v>1173.379396505661</v>
       </c>
       <c r="V16" t="n">
-        <v>925.1591100230039</v>
+        <v>983.6061913670658</v>
       </c>
       <c r="W16" t="n">
-        <v>700.653223053335</v>
+        <v>759.1003043973969</v>
       </c>
       <c r="X16" t="n">
-        <v>683.9633920234157</v>
+        <v>596.0220365666713</v>
       </c>
       <c r="Y16" t="n">
-        <v>528.0820959471773</v>
+        <v>440.140740490433</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1431.021337346029</v>
+        <v>1431.021337346028</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.146197594476</v>
+        <v>1208.146197594475</v>
       </c>
       <c r="D17" t="n">
-        <v>995.967876176584</v>
+        <v>995.9678761765832</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671986</v>
+        <v>756.2670007671978</v>
       </c>
       <c r="F17" t="n">
-        <v>491.3684731664498</v>
+        <v>491.3684731664491</v>
       </c>
       <c r="G17" t="n">
         <v>220.7210631716098</v>
       </c>
       <c r="H17" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="I17" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J17" t="n">
-        <v>102.7984511139569</v>
+        <v>270.2041001343098</v>
       </c>
       <c r="K17" t="n">
-        <v>229.3702855158047</v>
+        <v>717.6798929816107</v>
       </c>
       <c r="L17" t="n">
-        <v>836.7802026013826</v>
+        <v>911.6052076622426</v>
       </c>
       <c r="M17" t="n">
-        <v>1482.7605346685</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N17" t="n">
-        <v>1738.827037396881</v>
+        <v>1415.120425824779</v>
       </c>
       <c r="O17" t="n">
-        <v>2145.266937227466</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P17" t="n">
         <v>2305.752179175668</v>
       </c>
       <c r="Q17" t="n">
-        <v>2588.28900646351</v>
+        <v>2588.289006463509</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
@@ -5552,13 +5552,13 @@
         <v>2248.21889995574</v>
       </c>
       <c r="W17" t="n">
-        <v>2142.964136080466</v>
+        <v>2041.537621874483</v>
       </c>
       <c r="X17" t="n">
-        <v>1915.585755008245</v>
+        <v>1915.585755008244</v>
       </c>
       <c r="Y17" t="n">
-        <v>1671.533800221292</v>
+        <v>1671.533800221291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750153</v>
       </c>
       <c r="C18" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938883</v>
       </c>
       <c r="D18" t="n">
-        <v>633.7190151326377</v>
+        <v>633.7190151326372</v>
       </c>
       <c r="E18" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271816</v>
       </c>
       <c r="F18" t="n">
-        <v>327.9470021540672</v>
+        <v>327.9470021540666</v>
       </c>
       <c r="G18" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642091</v>
       </c>
       <c r="H18" t="n">
         <v>91.60256992448006</v>
       </c>
       <c r="I18" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J18" t="n">
-        <v>63.51841814083016</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K18" t="n">
-        <v>422.8380704495203</v>
+        <v>547.6681954365249</v>
       </c>
       <c r="L18" t="n">
-        <v>820.4280748539236</v>
+        <v>1092.222207051634</v>
       </c>
       <c r="M18" t="n">
-        <v>1046.828129983181</v>
+        <v>1446.007626220411</v>
       </c>
       <c r="N18" t="n">
         <v>1692.808462050298</v>
@@ -5610,7 +5610,7 @@
         <v>1896.363215178962</v>
       </c>
       <c r="P18" t="n">
-        <v>2355.67892497901</v>
+        <v>2355.678924979009</v>
       </c>
       <c r="Q18" t="n">
         <v>2610.021543705524</v>
@@ -5622,7 +5622,7 @@
         <v>2454.67743917286</v>
       </c>
       <c r="T18" t="n">
-        <v>2258.449416938631</v>
+        <v>2258.44941693863</v>
       </c>
       <c r="U18" t="n">
         <v>2030.323055025515</v>
@@ -5631,13 +5631,13 @@
         <v>1795.170946793772</v>
       </c>
       <c r="W18" t="n">
-        <v>1540.933590065571</v>
+        <v>1540.93359006557</v>
       </c>
       <c r="X18" t="n">
-        <v>1333.082089860038</v>
+        <v>1333.082089860037</v>
       </c>
       <c r="Y18" t="n">
-        <v>1125.321791095084</v>
+        <v>1125.321791095083</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.8273806909941</v>
+        <v>117.5072444608483</v>
       </c>
       <c r="C19" t="n">
-        <v>87.97857495194596</v>
+        <v>94.65843872180022</v>
       </c>
       <c r="D19" t="n">
-        <v>83.94931272846902</v>
+        <v>90.62917649832335</v>
       </c>
       <c r="E19" t="n">
-        <v>82.1235963349347</v>
+        <v>88.80346010478908</v>
       </c>
       <c r="F19" t="n">
-        <v>81.32102602588314</v>
+        <v>88.00088979573758</v>
       </c>
       <c r="G19" t="n">
-        <v>58.95989942638427</v>
+        <v>65.63976319623876</v>
       </c>
       <c r="H19" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396503</v>
       </c>
       <c r="I19" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396503</v>
       </c>
       <c r="J19" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="K19" t="n">
-        <v>171.2786430968842</v>
+        <v>171.2786430968841</v>
       </c>
       <c r="L19" t="n">
         <v>379.1841921514301</v>
@@ -5704,19 +5704,19 @@
         <v>1057.554387517023</v>
       </c>
       <c r="U19" t="n">
-        <v>914.4982250771753</v>
+        <v>914.4982250771757</v>
       </c>
       <c r="V19" t="n">
-        <v>659.8137368712885</v>
+        <v>659.8137368712888</v>
       </c>
       <c r="W19" t="n">
-        <v>516.4839440231866</v>
+        <v>516.4839440231871</v>
       </c>
       <c r="X19" t="n">
-        <v>288.4943931251693</v>
+        <v>373.8609112457592</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.789191170498</v>
+        <v>153.0683321022291</v>
       </c>
     </row>
     <row r="20">
@@ -5729,58 +5729,58 @@
         <v>1329.594823140047</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.146197594476</v>
+        <v>1106.719683388494</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765839</v>
+        <v>894.5413619706027</v>
       </c>
       <c r="E20" t="n">
-        <v>756.2670007671984</v>
+        <v>654.8404865612173</v>
       </c>
       <c r="F20" t="n">
-        <v>491.3684731664496</v>
+        <v>389.9419589604686</v>
       </c>
       <c r="G20" t="n">
         <v>220.7210631716098</v>
       </c>
       <c r="H20" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="I20" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J20" t="n">
-        <v>102.7984511139569</v>
+        <v>122.7878235133009</v>
       </c>
       <c r="K20" t="n">
-        <v>229.3702855158047</v>
+        <v>249.3596579151487</v>
       </c>
       <c r="L20" t="n">
-        <v>423.2956001964367</v>
+        <v>856.7695750007266</v>
       </c>
       <c r="M20" t="n">
-        <v>1069.275932263554</v>
+        <v>1502.749907067844</v>
       </c>
       <c r="N20" t="n">
-        <v>1715.256264330671</v>
+        <v>2148.730239134961</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.266937227466</v>
+        <v>2377.191315222786</v>
       </c>
       <c r="P20" t="n">
-        <v>2305.752179175668</v>
+        <v>2537.676557170988</v>
       </c>
       <c r="Q20" t="n">
-        <v>2588.28900646351</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R20" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S20" t="n">
-        <v>2607.937747380085</v>
+        <v>2607.937747380084</v>
       </c>
       <c r="T20" t="n">
-        <v>2540.770496610052</v>
+        <v>2540.770496610051</v>
       </c>
       <c r="U20" t="n">
         <v>2433.194410110451</v>
@@ -5789,13 +5789,13 @@
         <v>2248.218899955739</v>
       </c>
       <c r="W20" t="n">
-        <v>2041.537621874484</v>
+        <v>2041.537621874483</v>
       </c>
       <c r="X20" t="n">
-        <v>1814.159240802263</v>
+        <v>1814.159240802262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1570.10728601531</v>
+        <v>1570.107286015309</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>91.60256992448006</v>
       </c>
       <c r="I21" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="J21" t="n">
         <v>188.3485431278349</v>
       </c>
       <c r="K21" t="n">
-        <v>547.668195436525</v>
+        <v>547.6681954365249</v>
       </c>
       <c r="L21" t="n">
-        <v>829.6838750071915</v>
+        <v>1092.222207051634</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.083930136449</v>
+        <v>1318.622262180892</v>
       </c>
       <c r="N21" t="n">
-        <v>1302.884765966336</v>
+        <v>1565.423098010779</v>
       </c>
       <c r="O21" t="n">
         <v>1896.363215178962</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.2281035291172</v>
+        <v>117.5072444608485</v>
       </c>
       <c r="C22" t="n">
-        <v>155.379297790069</v>
+        <v>94.65843872180037</v>
       </c>
       <c r="D22" t="n">
-        <v>151.3500355665921</v>
+        <v>90.62917649832346</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5243191730578</v>
+        <v>88.80346010478917</v>
       </c>
       <c r="F22" t="n">
-        <v>81.32102602588314</v>
+        <v>88.00088979573763</v>
       </c>
       <c r="G22" t="n">
-        <v>58.95989942638427</v>
+        <v>65.63976319623879</v>
       </c>
       <c r="H22" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396503</v>
       </c>
       <c r="I22" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396503</v>
       </c>
       <c r="J22" t="n">
-        <v>52.20043087411048</v>
+        <v>52.20043087411047</v>
       </c>
       <c r="K22" t="n">
-        <v>171.2786430968842</v>
+        <v>171.2786430968841</v>
       </c>
       <c r="L22" t="n">
         <v>379.1841921514301</v>
@@ -5935,25 +5935,25 @@
         <v>1195.013110181716</v>
       </c>
       <c r="S22" t="n">
-        <v>990.3322809938338</v>
+        <v>1136.419658182693</v>
       </c>
       <c r="T22" t="n">
-        <v>765.3796331393052</v>
+        <v>1057.554387517023</v>
       </c>
       <c r="U22" t="n">
-        <v>622.3234706994579</v>
+        <v>768.4108478883168</v>
       </c>
       <c r="V22" t="n">
-        <v>513.7263596824298</v>
+        <v>513.7263596824299</v>
       </c>
       <c r="W22" t="n">
-        <v>370.3965668343279</v>
+        <v>309.6757077660591</v>
       </c>
       <c r="X22" t="n">
-        <v>288.4943931251694</v>
+        <v>227.7735340569006</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.7891911704981</v>
+        <v>153.0683321022293</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1433.091266207376</v>
+        <v>1433.091266207374</v>
       </c>
       <c r="C23" t="n">
-        <v>1210.216126455823</v>
+        <v>1210.216126455821</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379313</v>
+        <v>998.0378050379295</v>
       </c>
       <c r="E23" t="n">
-        <v>758.3369296285459</v>
+        <v>758.3369296285443</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4384020277971</v>
+        <v>493.4384020277957</v>
       </c>
       <c r="G23" t="n">
         <v>222.7909920329564</v>
@@ -5987,52 +5987,52 @@
         <v>54.27035973545705</v>
       </c>
       <c r="J23" t="n">
-        <v>269.9574085774794</v>
+        <v>272.2740289956564</v>
       </c>
       <c r="K23" t="n">
-        <v>396.5292429793273</v>
+        <v>719.7498218429573</v>
       </c>
       <c r="L23" t="n">
-        <v>590.4545576599593</v>
+        <v>913.6751365235892</v>
       </c>
       <c r="M23" t="n">
-        <v>1262.05025938624</v>
+        <v>1161.123851957745</v>
       </c>
       <c r="N23" t="n">
-        <v>1933.645961112521</v>
+        <v>1417.190354686126</v>
       </c>
       <c r="O23" t="n">
-        <v>2162.107037200346</v>
+        <v>2022.643610224069</v>
       </c>
       <c r="P23" t="n">
-        <v>2641.173000238316</v>
+        <v>2409.248622242997</v>
       </c>
       <c r="Q23" t="n">
-        <v>2713.517986772853</v>
+        <v>2691.785449530838</v>
       </c>
       <c r="R23" t="n">
         <v>2713.517986772853</v>
       </c>
       <c r="S23" t="n">
-        <v>2711.434190447413</v>
+        <v>2711.434190447412</v>
       </c>
       <c r="T23" t="n">
-        <v>2644.26693967738</v>
+        <v>2644.266939677379</v>
       </c>
       <c r="U23" t="n">
-        <v>2536.690853177781</v>
+        <v>2536.690853177779</v>
       </c>
       <c r="V23" t="n">
-        <v>2351.715343023069</v>
+        <v>2351.715343023066</v>
       </c>
       <c r="W23" t="n">
-        <v>2145.034064941814</v>
+        <v>2145.034064941811</v>
       </c>
       <c r="X23" t="n">
-        <v>1917.655683869592</v>
+        <v>1917.65568386959</v>
       </c>
       <c r="Y23" t="n">
-        <v>1673.603729082639</v>
+        <v>1673.603729082637</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>54.27035973545705</v>
       </c>
       <c r="J24" t="n">
-        <v>154.8295547747597</v>
+        <v>190.4184719891815</v>
       </c>
       <c r="K24" t="n">
-        <v>252.328622440997</v>
+        <v>549.7381242978715</v>
       </c>
       <c r="L24" t="n">
-        <v>796.8826340561062</v>
+        <v>1094.29213591298</v>
       </c>
       <c r="M24" t="n">
-        <v>1023.282689185364</v>
+        <v>1448.077555081758</v>
       </c>
       <c r="N24" t="n">
         <v>1694.878390911645</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3854095793224</v>
+        <v>265.6645505110538</v>
       </c>
       <c r="C25" t="n">
-        <v>157.4492266514155</v>
+        <v>242.8157447720058</v>
       </c>
       <c r="D25" t="n">
-        <v>86.01924158981559</v>
+        <v>238.7864825485289</v>
       </c>
       <c r="E25" t="n">
-        <v>84.19352519628127</v>
+        <v>90.87338896613574</v>
       </c>
       <c r="F25" t="n">
-        <v>83.39095488722971</v>
+        <v>90.0708186570842</v>
       </c>
       <c r="G25" t="n">
-        <v>61.02982828773084</v>
+        <v>67.70969205758536</v>
       </c>
       <c r="H25" t="n">
-        <v>54.27035973545705</v>
+        <v>60.95022350531161</v>
       </c>
       <c r="I25" t="n">
-        <v>54.27035973545705</v>
+        <v>60.95022350531161</v>
       </c>
       <c r="J25" t="n">
         <v>54.27035973545705</v>
       </c>
       <c r="K25" t="n">
-        <v>173.3485719582308</v>
+        <v>173.3485719582307</v>
       </c>
       <c r="L25" t="n">
-        <v>381.2541210127767</v>
+        <v>381.2541210127766</v>
       </c>
       <c r="M25" t="n">
-        <v>610.8504950763172</v>
+        <v>610.8504950763171</v>
       </c>
       <c r="N25" t="n">
-        <v>840.4221969596085</v>
+        <v>840.4221969596083</v>
       </c>
       <c r="O25" t="n">
         <v>1036.45252539102</v>
@@ -6169,28 +6169,28 @@
         <v>1197.083039043062</v>
       </c>
       <c r="R25" t="n">
-        <v>1197.083039043062</v>
+        <v>1073.724674631708</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.489587044039</v>
+        <v>1015.131222632685</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.624316378369</v>
+        <v>936.2659519670156</v>
       </c>
       <c r="U25" t="n">
-        <v>916.568153938522</v>
+        <v>793.2097895271684</v>
       </c>
       <c r="V25" t="n">
-        <v>807.9710429214939</v>
+        <v>684.6126785101403</v>
       </c>
       <c r="W25" t="n">
-        <v>664.641250073392</v>
+        <v>457.8330138162645</v>
       </c>
       <c r="X25" t="n">
-        <v>436.6516991753747</v>
+        <v>375.930840107106</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.9464972207033</v>
+        <v>301.2256381524347</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1578.735003217362</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874614</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G26" t="n">
         <v>331.6647365253298</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053866</v>
       </c>
       <c r="I26" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J26" t="n">
         <v>291.3284374829998</v>
@@ -6236,25 +6236,25 @@
         <v>2038.681261007939</v>
       </c>
       <c r="N26" t="n">
-        <v>2299.182365276263</v>
+        <v>2654.442007484366</v>
       </c>
       <c r="O26" t="n">
-        <v>2904.635620814207</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P26" t="n">
-        <v>3383.701583852176</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.238411140018</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R26" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U26" t="n">
         <v>3294.67742834307</v>
@@ -6269,7 +6269,7 @@
         <v>2480.908409833006</v>
       </c>
       <c r="Y26" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I27" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J27" t="n">
-        <v>84.64275548952004</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K27" t="n">
-        <v>221.6289462246165</v>
+        <v>568.7925327852149</v>
       </c>
       <c r="L27" t="n">
-        <v>766.1829578397256</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M27" t="n">
-        <v>992.5830129689833</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N27" t="n">
         <v>1713.932799398988</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.9932447349532</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C28" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D28" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E28" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F28" t="n">
-        <v>270.8417578006754</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G28" t="n">
-        <v>183.5693481338848</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H28" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I28" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J28" t="n">
-        <v>146.338523590514</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K28" t="n">
-        <v>344.9774256618356</v>
+        <v>344.9774256618352</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649291</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N28" t="n">
         <v>1250.733120208857</v>
@@ -6418,16 +6418,16 @@
         <v>1328.645027241752</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.4656154436259</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253293</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053872</v>
       </c>
       <c r="I29" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J29" t="n">
-        <v>291.3284374829998</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K29" t="n">
-        <v>738.8042303303007</v>
+        <v>417.9002718848475</v>
       </c>
       <c r="L29" t="n">
-        <v>1346.214147415879</v>
+        <v>1025.310188970426</v>
       </c>
       <c r="M29" t="n">
-        <v>2038.681261007939</v>
+        <v>1717.777302562486</v>
       </c>
       <c r="N29" t="n">
-        <v>2727.721218904184</v>
+        <v>2406.817260458731</v>
       </c>
       <c r="O29" t="n">
-        <v>3333.174474442128</v>
+        <v>3012.270515996674</v>
       </c>
       <c r="P29" t="n">
-        <v>3593.893424605481</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q29" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R29" t="n">
         <v>3666.238411140017</v>
@@ -6497,16 +6497,16 @@
         <v>3294.67742834307</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>209.4728804765248</v>
       </c>
       <c r="K30" t="n">
-        <v>306.9719481427621</v>
+        <v>568.7925327852148</v>
       </c>
       <c r="L30" t="n">
-        <v>828.3896005392544</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>1515.837668781012</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N30" t="n">
-        <v>2237.187455211017</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P30" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q30" t="n">
         <v>2631.145881054214</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349532</v>
+        <v>559.9932447349528</v>
       </c>
       <c r="C31" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286129</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378442</v>
       </c>
       <c r="E31" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770182</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006754</v>
+        <v>270.8417578006749</v>
       </c>
       <c r="G31" t="n">
-        <v>183.5693481338848</v>
+        <v>183.5693481338851</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8985965143195</v>
+        <v>111.8985965143196</v>
       </c>
       <c r="I31" t="n">
         <v>73.32476822280034</v>
@@ -6622,13 +6622,13 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K31" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618353</v>
       </c>
       <c r="L31" t="n">
         <v>632.4436645649291</v>
       </c>
       <c r="M31" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N31" t="n">
         <v>1250.733120208857</v>
@@ -6643,10 +6643,10 @@
         <v>1846.076031837954</v>
       </c>
       <c r="R31" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S31" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T31" t="n">
         <v>1536.612472748891</v>
@@ -6655,16 +6655,16 @@
         <v>1328.645027241752</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W31" t="n">
-        <v>946.8955572420391</v>
+        <v>946.8955572420384</v>
       </c>
       <c r="X31" t="n">
-        <v>800.0821004655888</v>
+        <v>800.0821004655882</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.4656154436259</v>
+        <v>660.4656154436254</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I32" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J32" t="n">
-        <v>291.3284374829998</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K32" t="n">
         <v>738.8042303303007</v>
       </c>
       <c r="L32" t="n">
-        <v>1346.214147415879</v>
+        <v>1328.916211713808</v>
       </c>
       <c r="M32" t="n">
-        <v>1987.134586830135</v>
+        <v>2021.383325305868</v>
       </c>
       <c r="N32" t="n">
-        <v>2676.17454472638</v>
+        <v>2277.449828034249</v>
       </c>
       <c r="O32" t="n">
-        <v>2904.635620814206</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P32" t="n">
-        <v>3383.701583852175</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q32" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R32" t="n">
         <v>3666.238411140017</v>
@@ -6734,16 +6734,16 @@
         <v>3294.67742834307</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>209.4728804765248</v>
       </c>
       <c r="K33" t="n">
-        <v>306.9719481427621</v>
+        <v>568.7925327852148</v>
       </c>
       <c r="L33" t="n">
-        <v>851.5259597578713</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M33" t="n">
-        <v>1077.926014887129</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N33" t="n">
-        <v>1799.275801317134</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O33" t="n">
-        <v>2392.75425052976</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P33" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q33" t="n">
         <v>2631.145881054214</v>
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349532</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E34" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H34" t="n">
-        <v>111.8985965143193</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I34" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905135</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618353</v>
+        <v>344.9774256618348</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770174</v>
+        <v>941.6007284770169</v>
       </c>
       <c r="N34" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488815</v>
       </c>
       <c r="P34" t="n">
-        <v>1750.101957367262</v>
+        <v>1750.101957367261</v>
       </c>
       <c r="Q34" t="n">
         <v>1846.076031837954</v>
       </c>
       <c r="R34" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S34" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T34" t="n">
         <v>1536.612472748891</v>
       </c>
       <c r="U34" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V34" t="n">
         <v>1155.136633157433</v>
       </c>
       <c r="W34" t="n">
-        <v>946.8955572420391</v>
+        <v>946.8955572420392</v>
       </c>
       <c r="X34" t="n">
-        <v>800.0821004655888</v>
+        <v>800.082100465589</v>
       </c>
       <c r="Y34" t="n">
         <v>660.4656154436259</v>
@@ -6920,37 +6920,37 @@
         <v>1301.645398732179</v>
       </c>
       <c r="E35" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555016</v>
       </c>
       <c r="F35" t="n">
         <v>667.2234295874614</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I35" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J35" t="n">
-        <v>274.0305017809287</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K35" t="n">
-        <v>721.5062946282296</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L35" t="n">
-        <v>1328.916211713808</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M35" t="n">
-        <v>2021.383325305868</v>
+        <v>2038.681261007939</v>
       </c>
       <c r="N35" t="n">
-        <v>2277.449828034249</v>
+        <v>2727.721218904184</v>
       </c>
       <c r="O35" t="n">
-        <v>2882.903083572191</v>
+        <v>2956.182294992009</v>
       </c>
       <c r="P35" t="n">
         <v>3361.969046610161</v>
@@ -6965,22 +6965,22 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T35" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U35" t="n">
-        <v>3294.67742834307</v>
+        <v>3294.677428343069</v>
       </c>
       <c r="V35" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121065</v>
       </c>
       <c r="W35" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X35" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y35" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J36" t="n">
-        <v>209.4728804765248</v>
+        <v>186.336521257908</v>
       </c>
       <c r="K36" t="n">
-        <v>306.971948142762</v>
+        <v>283.8355889241453</v>
       </c>
       <c r="L36" t="n">
-        <v>484.3940179074466</v>
+        <v>828.3896005392544</v>
       </c>
       <c r="M36" t="n">
-        <v>1171.842086149204</v>
+        <v>1515.837668781012</v>
       </c>
       <c r="N36" t="n">
-        <v>1418.642921979091</v>
+        <v>2237.187455211017</v>
       </c>
       <c r="O36" t="n">
-        <v>2012.121371191717</v>
+        <v>2440.74220833968</v>
       </c>
       <c r="P36" t="n">
-        <v>2471.437080991765</v>
+        <v>2584.779777186191</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.145881054214</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286133</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G37" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H37" t="n">
         <v>111.8985965143195</v>
@@ -7093,19 +7093,19 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3385235905143</v>
+        <v>146.3385235905132</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618359</v>
+        <v>344.9774256618348</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649297</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M37" t="n">
-        <v>941.600728477018</v>
+        <v>941.600728477017</v>
       </c>
       <c r="N37" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O37" t="n">
         <v>1526.324138488816</v>
@@ -7114,31 +7114,31 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q37" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R37" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S37" t="n">
         <v>1680.389026481853</v>
       </c>
       <c r="T37" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U37" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V37" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0821004655891</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1301.645398732179</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555016</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2234295874614</v>
+        <v>667.2234295874612</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253297</v>
+        <v>331.6647365253295</v>
       </c>
       <c r="H38" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I38" t="n">
         <v>73.32476822280034</v>
@@ -7181,16 +7181,16 @@
         <v>1346.214147415879</v>
       </c>
       <c r="M38" t="n">
-        <v>1610.142407380018</v>
+        <v>1820.334248133323</v>
       </c>
       <c r="N38" t="n">
-        <v>2299.182365276263</v>
+        <v>2509.374206029569</v>
       </c>
       <c r="O38" t="n">
-        <v>2904.635620814206</v>
+        <v>3114.827461567511</v>
       </c>
       <c r="P38" t="n">
-        <v>3383.701583852175</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q38" t="n">
         <v>3666.238411140017</v>
@@ -7217,7 +7217,7 @@
         <v>2480.908409833006</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>209.4728804765248</v>
       </c>
       <c r="K39" t="n">
-        <v>306.971948142762</v>
+        <v>568.7925327852148</v>
       </c>
       <c r="L39" t="n">
-        <v>851.5259597578711</v>
+        <v>746.2146025498994</v>
       </c>
       <c r="M39" t="n">
-        <v>1077.926014887129</v>
+        <v>972.6146576791571</v>
       </c>
       <c r="N39" t="n">
-        <v>1799.275801317134</v>
+        <v>1324.009103315026</v>
       </c>
       <c r="O39" t="n">
-        <v>2002.830554445797</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P39" t="n">
         <v>2376.8032623277</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286133</v>
       </c>
       <c r="D40" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E40" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G40" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H40" t="n">
         <v>111.8985965143195</v>
@@ -7333,16 +7333,16 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618348</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770175</v>
+        <v>941.600728477017</v>
       </c>
       <c r="N40" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O40" t="n">
         <v>1526.324138488816</v>
@@ -7351,31 +7351,31 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R40" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S40" t="n">
         <v>1680.389026481853</v>
       </c>
       <c r="T40" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U40" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V40" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W40" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X40" t="n">
-        <v>800.0821004655891</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036206</v>
       </c>
       <c r="C41" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D41" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E41" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253293</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053862</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I41" t="n">
         <v>73.32476822280033</v>
       </c>
       <c r="J41" t="n">
-        <v>123.9227884626467</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K41" t="n">
-        <v>288.5328394603649</v>
+        <v>738.8042303303005</v>
       </c>
       <c r="L41" t="n">
-        <v>895.9427565459429</v>
+        <v>1346.214147415878</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.409870138003</v>
+        <v>2038.681261007938</v>
       </c>
       <c r="N41" t="n">
-        <v>2277.449828034248</v>
+        <v>2727.721218904183</v>
       </c>
       <c r="O41" t="n">
-        <v>2882.903083572191</v>
+        <v>3333.174474442126</v>
       </c>
       <c r="P41" t="n">
-        <v>3361.969046610161</v>
+        <v>3493.659716390328</v>
       </c>
       <c r="Q41" t="n">
-        <v>3644.505873898002</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R41" t="n">
         <v>3666.238411140017</v>
       </c>
       <c r="S41" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747285</v>
       </c>
       <c r="T41" t="n">
         <v>3467.164797909961</v>
       </c>
       <c r="U41" t="n">
-        <v>3294.67742834307</v>
+        <v>3294.677428343069</v>
       </c>
       <c r="V41" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W41" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y41" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>73.32476822280033</v>
       </c>
       <c r="J42" t="n">
-        <v>84.64275548951998</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K42" t="n">
-        <v>182.1418231557573</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L42" t="n">
-        <v>726.6958347708663</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M42" t="n">
-        <v>953.0958899001239</v>
+        <v>1467.131963569102</v>
       </c>
       <c r="N42" t="n">
-        <v>1674.445676330129</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O42" t="n">
-        <v>2267.924125542755</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P42" t="n">
-        <v>2411.961694389265</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q42" t="n">
         <v>2631.145881054214</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349529</v>
+        <v>559.993244734953</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2331559286131</v>
+        <v>472.2331559286132</v>
       </c>
       <c r="D43" t="n">
         <v>403.2926106378446</v>
@@ -7558,31 +7558,31 @@
         <v>270.8417578006754</v>
       </c>
       <c r="G43" t="n">
-        <v>183.5693481338849</v>
+        <v>183.5693481338848</v>
       </c>
       <c r="H43" t="n">
-        <v>111.8985965143195</v>
+        <v>111.8985965143194</v>
       </c>
       <c r="I43" t="n">
         <v>73.32476822280033</v>
       </c>
       <c r="J43" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905135</v>
       </c>
       <c r="K43" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618351</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649289</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770178</v>
+        <v>941.6007284770174</v>
       </c>
       <c r="N43" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.324138488815</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P43" t="n">
         <v>1750.101957367261</v>
@@ -7597,7 +7597,7 @@
         <v>1680.389026481852</v>
       </c>
       <c r="T43" t="n">
-        <v>1536.61247274889</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U43" t="n">
         <v>1328.645027241752</v>
@@ -7606,13 +7606,13 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420385</v>
+        <v>946.8955572420386</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655884</v>
+        <v>800.0821004655885</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436254</v>
+        <v>660.4656154436256</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>331.6647365253293</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053863</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280033</v>
@@ -7649,22 +7649,22 @@
         <v>291.3284374829997</v>
       </c>
       <c r="K44" t="n">
-        <v>520.4572174556851</v>
+        <v>738.8042303303005</v>
       </c>
       <c r="L44" t="n">
-        <v>1127.867134541263</v>
+        <v>1346.214147415878</v>
       </c>
       <c r="M44" t="n">
-        <v>1820.334248133323</v>
+        <v>2038.681261007938</v>
       </c>
       <c r="N44" t="n">
-        <v>2509.374206029568</v>
+        <v>2727.721218904183</v>
       </c>
       <c r="O44" t="n">
-        <v>3114.827461567511</v>
+        <v>3223.216341903973</v>
       </c>
       <c r="P44" t="n">
-        <v>3593.893424605481</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q44" t="n">
         <v>3666.238411140017</v>
@@ -7673,7 +7673,7 @@
         <v>3666.238411140017</v>
       </c>
       <c r="S44" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747285</v>
       </c>
       <c r="T44" t="n">
         <v>3467.164797909961</v>
@@ -7682,10 +7682,10 @@
         <v>3294.677428343069</v>
       </c>
       <c r="V44" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121065</v>
       </c>
       <c r="W44" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.198073972518</v>
       </c>
       <c r="X44" t="n">
         <v>2480.908409833006</v>
@@ -7728,22 +7728,22 @@
         <v>209.4728804765247</v>
       </c>
       <c r="K45" t="n">
-        <v>306.971948142762</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L45" t="n">
-        <v>828.3896005392546</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M45" t="n">
-        <v>1515.837668781012</v>
+        <v>1339.746599529581</v>
       </c>
       <c r="N45" t="n">
-        <v>2237.187455211017</v>
+        <v>1586.547435359468</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.74220833968</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P45" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q45" t="n">
         <v>2631.145881054214</v>
@@ -7786,7 +7786,7 @@
         <v>472.2331559286131</v>
       </c>
       <c r="D46" t="n">
-        <v>403.2926106378446</v>
+        <v>403.2926106378445</v>
       </c>
       <c r="E46" t="n">
         <v>336.5556111770186</v>
@@ -7807,34 +7807,34 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770174</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N46" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O46" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488815</v>
       </c>
       <c r="P46" t="n">
-        <v>1750.101957367262</v>
+        <v>1750.101957367261</v>
       </c>
       <c r="Q46" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837953</v>
       </c>
       <c r="R46" t="n">
         <v>1803.893761548167</v>
       </c>
       <c r="S46" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T46" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.61247274889</v>
       </c>
       <c r="U46" t="n">
         <v>1328.645027241752</v>
@@ -7843,10 +7843,10 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W46" t="n">
-        <v>946.895557242039</v>
+        <v>946.8955572420385</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655888</v>
+        <v>800.0821004655884</v>
       </c>
       <c r="Y46" t="n">
         <v>660.4656154436254</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>32.43698172247545</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>184.9542567930242</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>380.0915642437604</v>
+        <v>423.8184615533935</v>
       </c>
       <c r="N12" t="n">
-        <v>403.2116123608384</v>
+        <v>403.2116123608386</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>327.1134479938262</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>148.7046480745514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>16.46906619018364</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>423.8184615533934</v>
+        <v>423.8184615533935</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>126.385453342086</v>
       </c>
       <c r="O15" t="n">
-        <v>179.3961480834377</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>402.5571885181425</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>179.7765896391521</v>
+        <v>184.9542567930237</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>222.3918531714331</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>128.6720848884032</v>
       </c>
       <c r="N18" t="n">
-        <v>403.2116123608384</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>20.19128525186265</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>402.5571885181425</v>
@@ -9413,16 +9413,16 @@
         <v>393.8523528674104</v>
       </c>
       <c r="O20" t="n">
-        <v>203.585451322192</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>43.7643620527663</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>105.6501109151333</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>128.6720848884037</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>166.7565945476525</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>428.4312992849747</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>419.7264636342425</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>228.4038081522481</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>90.14263411372022</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>128.6720848884037</v>
       </c>
       <c r="N24" t="n">
-        <v>429.0857231276706</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>4.479395494892401</v>
+        <v>363.3275189374205</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>39.88598289783752</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>101.2461699142939</v>
+        <v>191.1245340053395</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>347.4702854866744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>128.6720848884039</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>400.1885522251267</v>
       </c>
       <c r="M32" t="n">
-        <v>397.4461858384852</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>128.6720848884039</v>
       </c>
       <c r="P33" t="n">
-        <v>48.47268465648563</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>151.6239528467495</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,13 +10595,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>247.7793026969196</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>102.7209755236243</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>114.4875719135618</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>16.64600457574042</v>
+        <v>228.9609952356452</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>43.7643620527663</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>105.6501109151336</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>232.2577161973662</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>38.42244100592973</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>101.2461699142954</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.5637199968945</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>103.5928743139774</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>269.731360517136</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>43.76436205276633</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>347.470285486675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343888</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>317.668199835643</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>342.6138755050926</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>154.8808385719061</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548758</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.76113535209355</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253641</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>146.8599114426838</v>
+        <v>146.8599114426837</v>
       </c>
       <c r="U11" t="n">
-        <v>186.8646588149559</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>263.4900882335161</v>
       </c>
       <c r="W11" t="n">
-        <v>38.42161821797839</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>115.5698099453185</v>
       </c>
       <c r="C13" t="n">
-        <v>102.984650862009</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>81.15887778631242</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>158.4409511393646</v>
+        <v>32.83727546183332</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.893034362248812</v>
+        <v>154.322483115476</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>318.4716714268617</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>290.4208713840641</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>317.668199835643</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>38.7025847599773</v>
       </c>
       <c r="G14" t="n">
-        <v>348.305269075243</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548758</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209356</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>61.04886668335627</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>263.4900882335161</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>305.4689304418503</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>75.00689509435144</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.17179240995038</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.15887778631242</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5018485138553</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.2902529523366</v>
+        <v>54.29025295233657</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.8626105306214</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>144.9245524327985</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>100.4122490639216</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>100.4122490639214</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>100.4122490639215</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>100.412249063922</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26317,34 +26317,34 @@
         <v>266264.8100830375</v>
       </c>
       <c r="D2" t="n">
-        <v>266264.8100830374</v>
+        <v>266264.8100830375</v>
       </c>
       <c r="E2" t="n">
-        <v>231085.7356785805</v>
+        <v>231085.7356785806</v>
       </c>
       <c r="F2" t="n">
         <v>231085.7356785806</v>
       </c>
       <c r="G2" t="n">
+        <v>264240.9103226086</v>
+      </c>
+      <c r="H2" t="n">
         <v>264240.9103226084</v>
-      </c>
-      <c r="H2" t="n">
-        <v>264240.9103226087</v>
       </c>
       <c r="I2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="J2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="K2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058923</v>
@@ -26353,7 +26353,7 @@
         <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>792873.2514315095</v>
+        <v>792873.2514315094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428114</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6880.469409226767</v>
+        <v>6880.469409226797</v>
       </c>
       <c r="J3" t="n">
-        <v>62318.39567828061</v>
+        <v>62318.3956782806</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428117</v>
       </c>
       <c r="M3" t="n">
-        <v>162606.9521943979</v>
+        <v>162606.9521943978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>131476.982197976</v>
+        <v>131476.9821979761</v>
       </c>
       <c r="F4" t="n">
-        <v>131476.982197976</v>
+        <v>131476.9821979761</v>
       </c>
       <c r="G4" t="n">
         <v>189547.7028295033</v>
@@ -26445,16 +26445,16 @@
         <v>177002.7601002274</v>
       </c>
       <c r="L4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
       <c r="M4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
       <c r="N4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
       <c r="O4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
       <c r="P4" t="n">
         <v>177002.7601002275</v>
@@ -26482,13 +26482,13 @@
         <v>59907.62218574651</v>
       </c>
       <c r="G5" t="n">
-        <v>66663.77131188547</v>
+        <v>66663.77131188546</v>
       </c>
       <c r="H5" t="n">
-        <v>66663.77131188547</v>
+        <v>66663.77131188546</v>
       </c>
       <c r="I5" t="n">
-        <v>68236.91724650886</v>
+        <v>68236.91724650885</v>
       </c>
       <c r="J5" t="n">
         <v>77315.81130726746</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187510.5588064938</v>
+        <v>-187514.9723843618</v>
       </c>
       <c r="C6" t="n">
-        <v>-187510.5588064938</v>
+        <v>-187514.9723843619</v>
       </c>
       <c r="D6" t="n">
-        <v>-187510.5588064938</v>
+        <v>-187514.9723843619</v>
       </c>
       <c r="E6" t="n">
-        <v>-753172.1201366516</v>
+        <v>-753447.1419791692</v>
       </c>
       <c r="F6" t="n">
-        <v>39701.13129485802</v>
+        <v>39426.10945234024</v>
       </c>
       <c r="G6" t="n">
-        <v>-56262.03036306144</v>
+        <v>-56282.01240062503</v>
       </c>
       <c r="H6" t="n">
-        <v>8029.436181219906</v>
+        <v>8009.454143656026</v>
       </c>
       <c r="I6" t="n">
-        <v>-693.0324728567066</v>
+        <v>-693.0324728567211</v>
       </c>
       <c r="J6" t="n">
-        <v>-49798.39187988336</v>
+        <v>-49798.39187988327</v>
       </c>
       <c r="K6" t="n">
-        <v>12520.00379839729</v>
+        <v>12520.00379839732</v>
       </c>
       <c r="L6" t="n">
-        <v>-51771.46274588385</v>
+        <v>-51771.46274588403</v>
       </c>
       <c r="M6" t="n">
         <v>-150086.9483960005</v>
       </c>
       <c r="N6" t="n">
-        <v>12520.00379839737</v>
+        <v>12520.00379839732</v>
       </c>
       <c r="O6" t="n">
-        <v>12520.00379839739</v>
+        <v>12520.00379839733</v>
       </c>
       <c r="P6" t="n">
-        <v>12520.00379839721</v>
+        <v>12520.00379839733</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G2" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H2" t="n">
         <v>144.6265034169702</v>
@@ -26707,25 +26707,25 @@
         <v>144.6265034169702</v>
       </c>
       <c r="J2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="N2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="O2" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="P2" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
     </row>
     <row r="3">
@@ -26744,28 +26744,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="F3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="G3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="H3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="I3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="J3" t="n">
         <v>680.405428064231</v>
       </c>
       <c r="K3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="L3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="M3" t="n">
         <v>680.4054280642309</v>
@@ -26774,7 +26774,7 @@
         <v>680.4054280642309</v>
       </c>
       <c r="O3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="P3" t="n">
         <v>680.4054280642308</v>
@@ -26802,22 +26802,22 @@
         <v>652.505385926381</v>
       </c>
       <c r="G4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="H4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="I4" t="n">
         <v>678.3794966932131</v>
       </c>
       <c r="J4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="K4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="L4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="M4" t="n">
         <v>916.5596027850042</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.87411076683213</v>
+        <v>25.87411076683225</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917913</v>
+        <v>238.1801060917911</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="K13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="L13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="M13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="N13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="O13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="P13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="R13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="S13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="C16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="D16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="E16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="F16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="G16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="H16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="I16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="K16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="L16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="M16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="N16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="O16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="P16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="R16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="S16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="T16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="U16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="V16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="W16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="X16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661883</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I17" t="n">
-        <v>105.0233055887123</v>
+        <v>105.0233055887124</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="T17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="U17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="V17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="W17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.89978780722846</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="E19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="F19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="H19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="I19" t="n">
         <v>118.5524231889554</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613065132155995</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="T19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="U19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>84.51285293938358</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="I20" t="n">
-        <v>105.0233055887123</v>
+        <v>105.0233055887124</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="F22" t="n">
-        <v>77.89978780722835</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="G22" t="n">
         <v>144.6265034169702</v>
@@ -28980,7 +28980,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613065132155995</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,19 +29007,19 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="U22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.6265034169702</v>
+        <v>84.51285293938395</v>
       </c>
       <c r="X22" t="n">
         <v>144.6265034169702</v>
@@ -29056,7 +29056,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="I23" t="n">
-        <v>105.0233055887123</v>
+        <v>105.0233055887124</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29196,13 +29196,13 @@
         <v>144.6265034169702</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="D25" t="n">
-        <v>77.89978780722845</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="E25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>144.6265034169702</v>
@@ -29217,7 +29217,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132155995</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>144.6265034169702</v>
@@ -29256,10 +29256,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="W25" t="n">
+        <v>62.01113028965395</v>
+      </c>
+      <c r="X25" t="n">
         <v>144.6265034169702</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6265034169702</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035191</v>
+        <v>80.36433318035085</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035085</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035171</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="K43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="L43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="M43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="N43" t="n">
-        <v>80.36433318034997</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="R43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="S43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="J46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035148</v>
       </c>
     </row>
   </sheetData>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H11" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I11" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J11" t="n">
         <v>232.1550158800665</v>
@@ -31768,28 +31768,28 @@
         <v>431.6505712130498</v>
       </c>
       <c r="M11" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N11" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O11" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P11" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q11" t="n">
         <v>295.3814338487285</v>
       </c>
       <c r="R11" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S11" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T11" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U11" t="n">
         <v>0.218823856261863</v>
@@ -31835,7 +31835,7 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I12" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J12" t="n">
         <v>138.2699370370906</v>
@@ -31844,34 +31844,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L12" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M12" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N12" t="n">
         <v>380.6354856488758</v>
       </c>
       <c r="O12" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q12" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R12" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S12" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T12" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>10.90879522371833</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J13" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K13" t="n">
         <v>142.550514273129</v>
@@ -31941,16 +31941,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R13" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S13" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T13" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H14" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I14" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J14" t="n">
         <v>232.1550158800665</v>
@@ -32005,28 +32005,28 @@
         <v>431.6505712130498</v>
       </c>
       <c r="M14" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O14" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P14" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q14" t="n">
         <v>295.3814338487285</v>
       </c>
       <c r="R14" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S14" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T14" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U14" t="n">
         <v>0.218823856261863</v>
@@ -32072,7 +32072,7 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I15" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J15" t="n">
         <v>138.2699370370906</v>
@@ -32081,34 +32081,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L15" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M15" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N15" t="n">
         <v>380.6354856488758</v>
       </c>
       <c r="O15" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q15" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R15" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S15" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T15" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>10.90879522371833</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J16" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K16" t="n">
         <v>142.550514273129</v>
@@ -32178,16 +32178,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R16" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S16" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T16" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H17" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I17" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J17" t="n">
         <v>232.1550158800665</v>
@@ -32242,28 +32242,28 @@
         <v>431.6505712130498</v>
       </c>
       <c r="M17" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N17" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O17" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P17" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q17" t="n">
         <v>295.3814338487285</v>
       </c>
       <c r="R17" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S17" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T17" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U17" t="n">
         <v>0.218823856261863</v>
@@ -32309,7 +32309,7 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I18" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J18" t="n">
         <v>138.2699370370906</v>
@@ -32318,34 +32318,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L18" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N18" t="n">
         <v>380.6354856488758</v>
       </c>
       <c r="O18" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q18" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R18" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S18" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T18" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>10.90879522371833</v>
       </c>
       <c r="I19" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J19" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K19" t="n">
         <v>142.550514273129</v>
@@ -32415,16 +32415,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R19" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S19" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T19" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H20" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I20" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J20" t="n">
         <v>232.1550158800665</v>
@@ -32479,28 +32479,28 @@
         <v>431.6505712130498</v>
       </c>
       <c r="M20" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N20" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O20" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P20" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q20" t="n">
         <v>295.3814338487285</v>
       </c>
       <c r="R20" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S20" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T20" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U20" t="n">
         <v>0.218823856261863</v>
@@ -32546,7 +32546,7 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I21" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J21" t="n">
         <v>138.2699370370906</v>
@@ -32555,34 +32555,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L21" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N21" t="n">
         <v>380.6354856488758</v>
       </c>
       <c r="O21" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q21" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R21" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S21" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T21" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>10.90879522371833</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J22" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K22" t="n">
         <v>142.550514273129</v>
@@ -32652,16 +32652,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R22" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S22" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T22" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H23" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I23" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J23" t="n">
         <v>232.1550158800665</v>
@@ -32716,28 +32716,28 @@
         <v>431.6505712130498</v>
       </c>
       <c r="M23" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N23" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O23" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P23" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q23" t="n">
         <v>295.3814338487285</v>
       </c>
       <c r="R23" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S23" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T23" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U23" t="n">
         <v>0.218823856261863</v>
@@ -32783,7 +32783,7 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I24" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J24" t="n">
         <v>138.2699370370906</v>
@@ -32792,34 +32792,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L24" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N24" t="n">
         <v>380.6354856488758</v>
       </c>
       <c r="O24" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P24" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q24" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R24" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S24" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T24" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>10.90879522371833</v>
       </c>
       <c r="I25" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J25" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K25" t="n">
         <v>142.550514273129</v>
@@ -32889,16 +32889,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R25" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S25" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T25" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H29" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I29" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J29" t="n">
         <v>232.1550158800665</v>
@@ -33190,28 +33190,28 @@
         <v>431.6505712130498</v>
       </c>
       <c r="M29" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N29" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O29" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P29" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q29" t="n">
         <v>295.3814338487285</v>
       </c>
       <c r="R29" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S29" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T29" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U29" t="n">
         <v>0.218823856261863</v>
@@ -33257,7 +33257,7 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I30" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J30" t="n">
         <v>138.2699370370906</v>
@@ -33266,34 +33266,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L30" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N30" t="n">
         <v>380.6354856488758</v>
       </c>
       <c r="O30" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P30" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q30" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R30" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S30" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T30" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>10.90879522371833</v>
       </c>
       <c r="I31" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J31" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K31" t="n">
         <v>142.550514273129</v>
@@ -33363,16 +33363,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R31" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S31" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T31" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H32" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I32" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J32" t="n">
         <v>232.1550158800665</v>
@@ -33427,28 +33427,28 @@
         <v>431.6505712130498</v>
       </c>
       <c r="M32" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N32" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O32" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P32" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q32" t="n">
         <v>295.3814338487285</v>
       </c>
       <c r="R32" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S32" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T32" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U32" t="n">
         <v>0.218823856261863</v>
@@ -33494,7 +33494,7 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I33" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J33" t="n">
         <v>138.2699370370906</v>
@@ -33503,34 +33503,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L33" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N33" t="n">
         <v>380.6354856488758</v>
       </c>
       <c r="O33" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P33" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q33" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R33" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S33" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T33" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>10.90879522371833</v>
       </c>
       <c r="I34" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K34" t="n">
         <v>142.550514273129</v>
@@ -33600,16 +33600,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R34" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S34" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T34" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34129,34 +34129,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J41" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K41" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L41" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M41" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N41" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O41" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P41" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R41" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S41" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T41" t="n">
         <v>11.97376788482882</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H42" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I42" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J42" t="n">
         <v>138.2699370370906</v>
@@ -34220,7 +34220,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N42" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O42" t="n">
         <v>348.2071061905692</v>
@@ -34232,16 +34232,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R42" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S42" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T42" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H43" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I43" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J43" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K43" t="n">
         <v>142.550514273129</v>
@@ -34305,22 +34305,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P43" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R43" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S43" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T43" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K11" t="n">
-        <v>127.8503377796443</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L11" t="n">
-        <v>613.545370793513</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M11" t="n">
-        <v>282.3851791307139</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N11" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O11" t="n">
-        <v>611.5689449878213</v>
+        <v>415.7230205181</v>
       </c>
       <c r="P11" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q11" t="n">
         <v>285.3907346341837</v>
       </c>
       <c r="R11" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.43231037042392</v>
+        <v>11.43231037042389</v>
       </c>
       <c r="K12" t="n">
-        <v>362.9491437461517</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L12" t="n">
-        <v>550.054557186979</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M12" t="n">
-        <v>608.7784886167479</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N12" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="O12" t="n">
-        <v>205.6108617461248</v>
+        <v>532.724309739951</v>
       </c>
       <c r="P12" t="n">
-        <v>145.4924937843537</v>
+        <v>145.4924937843536</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.8344483515387</v>
+        <v>46.83444835153867</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446279</v>
+        <v>57.64910510446282</v>
       </c>
       <c r="K13" t="n">
         <v>184.543192683865</v>
@@ -35586,7 +35586,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262329</v>
+        <v>80.84134662262331</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.1091113533802</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K14" t="n">
         <v>451.995750350809</v>
       </c>
       <c r="L14" t="n">
-        <v>613.545370793513</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M14" t="n">
         <v>249.9481974082384</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O14" t="n">
-        <v>379.4734117996274</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P14" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.07574397427905</v>
+        <v>89.54481016446263</v>
       </c>
       <c r="R14" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.5233457108328</v>
+        <v>11.43231037042389</v>
       </c>
       <c r="K15" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L15" t="n">
-        <v>550.054557186979</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M15" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="N15" t="n">
-        <v>249.2937735655425</v>
+        <v>375.6792269076285</v>
       </c>
       <c r="O15" t="n">
-        <v>385.0070098295625</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P15" t="n">
-        <v>463.9552624242908</v>
+        <v>145.4924937843536</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446279</v>
+        <v>57.64910510446282</v>
       </c>
       <c r="K16" t="n">
         <v>184.543192683865</v>
@@ -35823,7 +35823,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262329</v>
+        <v>80.84134662262331</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.1091113533802</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K17" t="n">
-        <v>127.8503377796443</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L17" t="n">
-        <v>613.545370793513</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M17" t="n">
-        <v>652.505385926381</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O17" t="n">
-        <v>410.545353364228</v>
+        <v>415.7230205180996</v>
       </c>
       <c r="P17" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q17" t="n">
         <v>285.3907346341837</v>
       </c>
       <c r="R17" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K18" t="n">
-        <v>362.9491437461517</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L18" t="n">
-        <v>401.6060650549529</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M18" t="n">
-        <v>228.6869243729876</v>
+        <v>357.3590092613907</v>
       </c>
       <c r="N18" t="n">
-        <v>652.505385926381</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O18" t="n">
         <v>205.6108617461248</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>120.2810224472462</v>
+        <v>120.2810224472461</v>
       </c>
       <c r="L19" t="n">
-        <v>210.005605105602</v>
+        <v>210.0056051056019</v>
       </c>
       <c r="M19" t="n">
         <v>231.9155293571116</v>
@@ -36060,7 +36060,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600448</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.1091113533802</v>
+        <v>71.30039660524282</v>
       </c>
       <c r="K20" t="n">
-        <v>127.8503377796443</v>
+        <v>127.8503377796442</v>
       </c>
       <c r="L20" t="n">
-        <v>195.8841562430626</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M20" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="N20" t="n">
-        <v>652.505385926381</v>
+        <v>652.5053859263809</v>
       </c>
       <c r="O20" t="n">
-        <v>434.354215047268</v>
+        <v>230.7687637250758</v>
       </c>
       <c r="P20" t="n">
-        <v>162.1063049981838</v>
+        <v>162.1063049981837</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.3907346341837</v>
+        <v>73.07574397427899</v>
       </c>
       <c r="R20" t="n">
-        <v>21.9520578202162</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.5233457108328</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K21" t="n">
-        <v>362.9491437461517</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L21" t="n">
-        <v>284.8643227986531</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M21" t="n">
-        <v>228.6869243729876</v>
+        <v>228.6869243729875</v>
       </c>
       <c r="N21" t="n">
         <v>249.2937735655425</v>
       </c>
       <c r="O21" t="n">
-        <v>599.4731810228543</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P21" t="n">
         <v>463.9552624242908</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>120.2810224472462</v>
+        <v>120.2810224472461</v>
       </c>
       <c r="L22" t="n">
-        <v>210.005605105602</v>
+        <v>210.0056051056019</v>
       </c>
       <c r="M22" t="n">
         <v>231.9155293571116</v>
@@ -36297,7 +36297,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>217.8657059010327</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K23" t="n">
-        <v>127.8503377796443</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L23" t="n">
-        <v>195.8841562430626</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M23" t="n">
-        <v>678.3794966932131</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N23" t="n">
-        <v>678.3794966932131</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O23" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P23" t="n">
-        <v>483.9050131696664</v>
+        <v>390.5101131504318</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>101.5749444841441</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K24" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L24" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M24" t="n">
-        <v>228.6869243729876</v>
+        <v>357.3590092613912</v>
       </c>
       <c r="N24" t="n">
-        <v>678.3794966932131</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O24" t="n">
         <v>205.6108617461248</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>120.2810224472462</v>
+        <v>120.2810224472461</v>
       </c>
       <c r="L25" t="n">
-        <v>210.005605105602</v>
+        <v>210.0056051056019</v>
       </c>
       <c r="M25" t="n">
         <v>231.9155293571116</v>
@@ -36534,7 +36534,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>699.461730901071</v>
       </c>
       <c r="N26" t="n">
-        <v>263.132428553863</v>
+        <v>621.980551996391</v>
       </c>
       <c r="O26" t="n">
-        <v>611.5689449878213</v>
+        <v>230.768763725076</v>
       </c>
       <c r="P26" t="n">
         <v>483.9050131696664</v>
@@ -36616,7 +36616,7 @@
         <v>285.3907346341837</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.9520578202162</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3698896314106</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L27" t="n">
         <v>550.054557186979</v>
       </c>
       <c r="M27" t="n">
-        <v>228.6869243729876</v>
+        <v>357.3590092613912</v>
       </c>
       <c r="N27" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O27" t="n">
         <v>205.6108617461248</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K28" t="n">
         <v>200.6453556275976</v>
@@ -36771,7 +36771,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K29" t="n">
-        <v>451.995750350809</v>
+        <v>127.8503377796442</v>
       </c>
       <c r="L29" t="n">
         <v>613.545370793513</v>
       </c>
       <c r="M29" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010708</v>
       </c>
       <c r="N29" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709545</v>
       </c>
       <c r="O29" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P29" t="n">
-        <v>263.3524749124777</v>
+        <v>353.2308390035232</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.5233457108328</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K30" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L30" t="n">
-        <v>526.6844973701942</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M30" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729875</v>
       </c>
       <c r="N30" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O30" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345287</v>
       </c>
       <c r="P30" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.75126804819541</v>
+        <v>73.75126804819537</v>
       </c>
       <c r="K31" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275975</v>
       </c>
       <c r="L31" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859533</v>
       </c>
       <c r="M31" t="n">
         <v>312.279862537463</v>
@@ -37005,10 +37005,10 @@
         <v>278.3747659393528</v>
       </c>
       <c r="P31" t="n">
-        <v>226.0382008873191</v>
+        <v>226.038200887319</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635586</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K32" t="n">
         <v>451.995750350809</v>
       </c>
       <c r="L32" t="n">
-        <v>613.545370793513</v>
+        <v>596.0727084681893</v>
       </c>
       <c r="M32" t="n">
-        <v>647.3943832467237</v>
+        <v>699.4617309010708</v>
       </c>
       <c r="N32" t="n">
-        <v>695.9999574709548</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O32" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P32" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q32" t="n">
         <v>285.3907346341837</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.5233457108328</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K33" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L33" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M33" t="n">
-        <v>228.6869243729876</v>
+        <v>228.6869243729875</v>
       </c>
       <c r="N33" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O33" t="n">
-        <v>599.4731810228543</v>
+        <v>334.2829466345287</v>
       </c>
       <c r="P33" t="n">
-        <v>193.9651784408393</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.94350956635591</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>202.7330642001297</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K35" t="n">
         <v>451.995750350809</v>
@@ -37315,13 +37315,13 @@
         <v>699.4617309010708</v>
       </c>
       <c r="N35" t="n">
-        <v>258.6530330589704</v>
+        <v>695.9999574709545</v>
       </c>
       <c r="O35" t="n">
-        <v>611.5689449878212</v>
+        <v>230.7687637250758</v>
       </c>
       <c r="P35" t="n">
-        <v>483.9050131696663</v>
+        <v>409.8856076951033</v>
       </c>
       <c r="Q35" t="n">
         <v>285.3907346341837</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.5233457108327</v>
+        <v>114.1532858940482</v>
       </c>
       <c r="K36" t="n">
         <v>98.48390673357301</v>
       </c>
       <c r="L36" t="n">
-        <v>179.2142118835197</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M36" t="n">
         <v>694.3919881229874</v>
       </c>
       <c r="N36" t="n">
-        <v>249.2937735655425</v>
+        <v>728.6361479090961</v>
       </c>
       <c r="O36" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461248</v>
       </c>
       <c r="P36" t="n">
-        <v>463.9552624242908</v>
+        <v>145.4924937843536</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.3220202651004</v>
+        <v>46.83444835153867</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.7512680481959</v>
+        <v>73.75126804819485</v>
       </c>
       <c r="K37" t="n">
         <v>200.6453556275976</v>
@@ -37476,13 +37476,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O37" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P37" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.94350956635589</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>613.545370793513</v>
       </c>
       <c r="M38" t="n">
-        <v>266.5942019839788</v>
+        <v>478.9091926438836</v>
       </c>
       <c r="N38" t="n">
         <v>695.9999574709545</v>
@@ -37561,7 +37561,7 @@
         <v>483.9050131696663</v>
       </c>
       <c r="Q38" t="n">
-        <v>285.3907346341837</v>
+        <v>73.07574397427899</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>137.5233457108327</v>
       </c>
       <c r="K39" t="n">
-        <v>98.48390673357301</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L39" t="n">
-        <v>550.0545571869789</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M39" t="n">
         <v>228.6869243729875</v>
       </c>
       <c r="N39" t="n">
-        <v>728.6361479090961</v>
+        <v>354.943884480676</v>
       </c>
       <c r="O39" t="n">
-        <v>205.6108617461248</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P39" t="n">
-        <v>377.7502099817198</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q39" t="n">
         <v>256.9117360873878</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K40" t="n">
-        <v>200.6453556275976</v>
+        <v>200.645355627597</v>
       </c>
       <c r="L40" t="n">
         <v>290.3699382859534</v>
@@ -37713,13 +37713,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O40" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P40" t="n">
-        <v>226.0382008873194</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.94350956635589</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>51.10911135338017</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K41" t="n">
-        <v>166.272778785574</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L41" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M41" t="n">
-        <v>699.4617309010708</v>
+        <v>699.4617309010707</v>
       </c>
       <c r="N41" t="n">
         <v>695.9999574709545</v>
@@ -37795,13 +37795,13 @@
         <v>611.5689449878212</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9050131696663</v>
+        <v>162.1063049981836</v>
       </c>
       <c r="Q41" t="n">
-        <v>285.3907346341837</v>
+        <v>174.3219138885743</v>
       </c>
       <c r="R41" t="n">
-        <v>21.95205782021614</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.43231037042389</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K42" t="n">
-        <v>98.48390673357301</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L42" t="n">
         <v>550.0545571869789</v>
       </c>
       <c r="M42" t="n">
-        <v>228.6869243729875</v>
+        <v>357.3590092613919</v>
       </c>
       <c r="N42" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O42" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P42" t="n">
-        <v>145.4924937843536</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q42" t="n">
-        <v>221.3981683484331</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.75126804819546</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K43" t="n">
         <v>200.6453556275976</v>
@@ -37947,16 +37947,16 @@
         <v>312.279862537463</v>
       </c>
       <c r="N43" t="n">
-        <v>312.2549411432705</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O43" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P43" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.94350956635594</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>220.2057265254539</v>
       </c>
       <c r="K44" t="n">
-        <v>231.4432120936216</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L44" t="n">
         <v>613.5453707935129</v>
@@ -38029,13 +38029,13 @@
         <v>695.9999574709545</v>
       </c>
       <c r="O44" t="n">
-        <v>611.5689449878212</v>
+        <v>500.5001242422117</v>
       </c>
       <c r="P44" t="n">
-        <v>483.9050131696662</v>
+        <v>162.1063049981836</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.07574397427894</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>137.5233457108327</v>
       </c>
       <c r="K45" t="n">
-        <v>98.48390673357298</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L45" t="n">
-        <v>526.6844973701947</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M45" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N45" t="n">
-        <v>728.6361479090959</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O45" t="n">
-        <v>205.6108617461247</v>
+        <v>334.2829466345291</v>
       </c>
       <c r="P45" t="n">
-        <v>145.4924937843536</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.83444835153864</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819546</v>
       </c>
       <c r="K46" t="n">
         <v>200.6453556275976</v>
@@ -38184,16 +38184,16 @@
         <v>312.279862537463</v>
       </c>
       <c r="N46" t="n">
-        <v>312.2549411432719</v>
+        <v>312.2549411432705</v>
       </c>
       <c r="O46" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P46" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.94350956635593</v>
+        <v>96.94350956635594</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
